--- a/Results/numerical_results/viscosity_ensemble.xlsx
+++ b/Results/numerical_results/viscosity_ensemble.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="paste_data_here" sheetId="1" state="visible" r:id="rId3"/>
@@ -936,11 +936,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="65254407"/>
-        <c:axId val="21410510"/>
+        <c:axId val="81997089"/>
+        <c:axId val="90571204"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="65254407"/>
+        <c:axId val="81997089"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -982,12 +982,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21410510"/>
+        <c:crossAx val="90571204"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="21410510"/>
+        <c:axId val="90571204"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1029,7 +1029,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65254407"/>
+        <c:crossAx val="81997089"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1482,11 +1482,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="76049781"/>
-        <c:axId val="70585184"/>
+        <c:axId val="63455617"/>
+        <c:axId val="7761852"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="76049781"/>
+        <c:axId val="63455617"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1528,12 +1528,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70585184"/>
+        <c:crossAx val="7761852"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70585184"/>
+        <c:axId val="7761852"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1575,7 +1575,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76049781"/>
+        <c:crossAx val="63455617"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2028,11 +2028,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="67318379"/>
-        <c:axId val="70809782"/>
+        <c:axId val="7388124"/>
+        <c:axId val="52727831"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67318379"/>
+        <c:axId val="7388124"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2074,12 +2074,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70809782"/>
+        <c:crossAx val="52727831"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70809782"/>
+        <c:axId val="52727831"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2121,7 +2121,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67318379"/>
+        <c:crossAx val="7388124"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2574,11 +2574,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="44351191"/>
-        <c:axId val="518253"/>
+        <c:axId val="92066927"/>
+        <c:axId val="80820727"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="44351191"/>
+        <c:axId val="92066927"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2620,12 +2620,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518253"/>
+        <c:crossAx val="80820727"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="518253"/>
+        <c:axId val="80820727"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2667,7 +2667,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44351191"/>
+        <c:crossAx val="92066927"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3120,11 +3120,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="18494736"/>
-        <c:axId val="2581512"/>
+        <c:axId val="47173063"/>
+        <c:axId val="58938128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="18494736"/>
+        <c:axId val="47173063"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3166,12 +3166,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2581512"/>
+        <c:crossAx val="58938128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2581512"/>
+        <c:axId val="58938128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3213,7 +3213,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18494736"/>
+        <c:crossAx val="47173063"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -28722,7 +28722,7 @@
   </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L4" activeCellId="0" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -28893,8 +28893,8 @@
   </sheetPr>
   <dimension ref="A1:T172"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A56" activeCellId="0" sqref="A56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L41" activeCellId="0" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31116,46 +31116,16 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B54" s="1" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C54" s="1" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D54" s="1" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E54" s="1" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F54" s="1" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G54" s="1" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H54" s="1" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I54" s="1" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J54" s="1" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1"/>
